--- a/lesson15/天氣預測1天.xlsx
+++ b/lesson15/天氣預測1天.xlsx
@@ -476,23 +476,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -507,23 +507,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
         <v>16</v>
       </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -538,23 +538,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>寒冷至舒適</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -569,23 +569,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
         <v>15</v>
       </c>
-      <c r="F5" t="n">
-        <v>19</v>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>寒冷</t>
         </is>
       </c>
     </row>
@@ -600,23 +600,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
-        <v>19</v>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>寒冷</t>
         </is>
       </c>
     </row>
@@ -631,23 +631,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
         <v>16</v>
       </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -662,23 +662,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -693,23 +693,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
         <v>15</v>
       </c>
-      <c r="F9" t="n">
-        <v>19</v>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>寒冷</t>
         </is>
       </c>
     </row>
@@ -724,19 +724,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -755,23 +755,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -786,23 +786,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
         <v>17</v>
       </c>
-      <c r="F12" t="n">
-        <v>20</v>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -817,23 +817,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
         <v>17</v>
       </c>
-      <c r="F13" t="n">
-        <v>21</v>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -848,23 +848,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
         <v>18</v>
       </c>
-      <c r="F14" t="n">
-        <v>21</v>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>稍有寒意至舒適</t>
+          <t>稍有寒意</t>
         </is>
       </c>
     </row>
@@ -879,23 +879,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
         <v>15</v>
       </c>
-      <c r="F15" t="n">
-        <v>19</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>寒冷</t>
         </is>
       </c>
     </row>
@@ -910,23 +910,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>寒冷至舒適</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -941,16 +941,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>21</v>
@@ -972,19 +972,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1003,23 +1003,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>稍有寒意至舒適</t>
+          <t>寒冷至舒適</t>
         </is>
       </c>
     </row>
@@ -1034,23 +1034,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷</t>
         </is>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1096,23 +1096,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>寒冷至稍有寒意</t>
         </is>
       </c>
     </row>
@@ -1127,19 +1127,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-01-02 18:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-01-03 06:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
